--- a/data/trans_orig/Q4501_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q4501_R-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>22047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14362</v>
+        <v>14292</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32662</v>
+        <v>33112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03181433200755436</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02072509042253773</v>
+        <v>0.02062295354166723</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04713131470575206</v>
+        <v>0.04778162743579761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -764,19 +764,19 @@
         <v>111194</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93541</v>
+        <v>94091</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132559</v>
+        <v>132681</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1617812556901979</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1360982353938787</v>
+        <v>0.1368971829009362</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1928673416420649</v>
+        <v>0.1930450003281224</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -785,19 +785,19 @@
         <v>133241</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>112132</v>
+        <v>112627</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>153674</v>
+        <v>157452</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09653011381062493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08123725818138154</v>
+        <v>0.08159575568057423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1113335465280987</v>
+        <v>0.1140704834246829</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>65654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50918</v>
+        <v>51675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81548</v>
+        <v>81705</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09474017464777662</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07347572557947804</v>
+        <v>0.07456787487803773</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1176751770235778</v>
+        <v>0.1179014523679558</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -835,19 +835,19 @@
         <v>143888</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124966</v>
+        <v>125746</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>165759</v>
+        <v>166303</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2093507334695134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1818193929167893</v>
+        <v>0.1829537978766122</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2411706638666609</v>
+        <v>0.2419622001885627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>208</v>
@@ -856,19 +856,19 @@
         <v>209543</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>182411</v>
+        <v>183826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>235370</v>
+        <v>238349</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1518094020086303</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1321529022963533</v>
+        <v>0.1331780584735884</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1705206507878405</v>
+        <v>0.1726788583245699</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>174382</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>153779</v>
+        <v>152638</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>200019</v>
+        <v>201591</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2516350649717105</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2219047409333888</v>
+        <v>0.2202590482967376</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2886302628684526</v>
+        <v>0.2908991412701554</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>168</v>
@@ -906,19 +906,19 @@
         <v>164326</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>141595</v>
+        <v>142989</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>187822</v>
+        <v>185907</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.239085974547936</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2060134951554642</v>
+        <v>0.208042513664881</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2732725057861969</v>
+        <v>0.2704861982452873</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>337</v>
@@ -927,19 +927,19 @@
         <v>338707</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>309111</v>
+        <v>308196</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>369745</v>
+        <v>369882</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2453863658821248</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.223944473498831</v>
+        <v>0.2232817441850137</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2678722904256821</v>
+        <v>0.2679717813690087</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>137290</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116753</v>
+        <v>116578</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158776</v>
+        <v>158162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1981112237882365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1684764754068272</v>
+        <v>0.1682230240867192</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2291158057677198</v>
+        <v>0.228229628916085</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -977,19 +977,19 @@
         <v>75114</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59700</v>
+        <v>59705</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92564</v>
+        <v>92136</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1092866205005221</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08686023043610477</v>
+        <v>0.08686766397264464</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1346763496682962</v>
+        <v>0.1340532170883366</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>213</v>
@@ -998,19 +998,19 @@
         <v>212403</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>188409</v>
+        <v>186010</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>240878</v>
+        <v>237737</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1538818654081882</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1364984685129686</v>
+        <v>0.134760720733106</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1745111804967183</v>
+        <v>0.1722355798358758</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>293621</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>266728</v>
+        <v>269090</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>317737</v>
+        <v>319907</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.423699204584722</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3848922768362028</v>
+        <v>0.3883001980435161</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4584986768262404</v>
+        <v>0.4616295469319187</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>196</v>
@@ -1048,19 +1048,19 @@
         <v>192787</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>169726</v>
+        <v>168983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>216319</v>
+        <v>216273</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2804954157918306</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2469425837610322</v>
+        <v>0.245862746104537</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3147336490936735</v>
+        <v>0.3146662075351018</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>486</v>
@@ -1069,19 +1069,19 @@
         <v>486408</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>452188</v>
+        <v>451592</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>521239</v>
+        <v>523444</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3523922528904319</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3276005687091865</v>
+        <v>0.3271692521933625</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3776267990479654</v>
+        <v>0.379223947626289</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>114857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94491</v>
+        <v>95583</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136387</v>
+        <v>138400</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.119419274683042</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09824421689499584</v>
+        <v>0.09937956152714417</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.141804423411335</v>
+        <v>0.1438971387086763</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>243</v>
@@ -1194,19 +1194,19 @@
         <v>262898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>232489</v>
+        <v>236940</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>289471</v>
+        <v>293686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2720646885448829</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2405949604471443</v>
+        <v>0.2452009972290229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2995638235213111</v>
+        <v>0.3039257613233436</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>349</v>
@@ -1215,19 +1215,19 @@
         <v>377756</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>340455</v>
+        <v>342340</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>414481</v>
+        <v>414054</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1959204215855739</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1765748763318018</v>
+        <v>0.1775525527647378</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2149675704085826</v>
+        <v>0.2147462594694182</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>104573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>87413</v>
+        <v>85760</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127093</v>
+        <v>127107</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1087263289469332</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0908850005957131</v>
+        <v>0.08916655984867149</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1321412077504707</v>
+        <v>0.1321550873519288</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>165</v>
@@ -1265,19 +1265,19 @@
         <v>175189</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150425</v>
+        <v>150915</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>200640</v>
+        <v>199599</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1812971487424274</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1556696073564647</v>
+        <v>0.1561774295712298</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2076352323995288</v>
+        <v>0.2065582890029418</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>261</v>
@@ -1286,19 +1286,19 @@
         <v>279762</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>246149</v>
+        <v>251542</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>310178</v>
+        <v>312624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.145096572936295</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1276633987307733</v>
+        <v>0.1304606748082501</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1608714518859085</v>
+        <v>0.1621403554881831</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>237528</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>209872</v>
+        <v>212426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>265263</v>
+        <v>266499</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2469623370044265</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2182075942308361</v>
+        <v>0.2208627969264765</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2757987059280782</v>
+        <v>0.2770836606865442</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>241</v>
@@ -1336,19 +1336,19 @@
         <v>251059</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>224813</v>
+        <v>224869</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>279708</v>
+        <v>279941</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2598127966296086</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2326518510426694</v>
+        <v>0.2327092821565239</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2894605920033952</v>
+        <v>0.2897015060053298</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>468</v>
@@ -1357,19 +1357,19 @@
         <v>488588</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>450797</v>
+        <v>453381</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>530004</v>
+        <v>529925</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2534025887924094</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2338026968624985</v>
+        <v>0.2351427357435788</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2748831037729702</v>
+        <v>0.2748420752264461</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>137846</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114542</v>
+        <v>116054</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>162666</v>
+        <v>159251</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.143320552604594</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1190910506470199</v>
+        <v>0.1206632708127659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1691266630274353</v>
+        <v>0.1655759605051026</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1407,19 +1407,19 @@
         <v>65259</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51145</v>
+        <v>50520</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83114</v>
+        <v>84555</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06753467119015745</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05292865040467037</v>
+        <v>0.05228121078341617</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08601212693596531</v>
+        <v>0.08750357490953235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>186</v>
@@ -1428,19 +1428,19 @@
         <v>203105</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>175143</v>
+        <v>177541</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>231569</v>
+        <v>232505</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1053390194517463</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09083646132888375</v>
+        <v>0.09208044472586097</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1201014233654612</v>
+        <v>0.1205873769937686</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>366995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335797</v>
+        <v>336304</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>396934</v>
+        <v>399222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3815715067610043</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3491339186117221</v>
+        <v>0.3496608701123612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4126992452217431</v>
+        <v>0.41507829140804</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>196</v>
@@ -1478,19 +1478,19 @@
         <v>211902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>186302</v>
+        <v>184443</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>240967</v>
+        <v>237293</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2192906948929236</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.192797816887509</v>
+        <v>0.1908741954438553</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2493686723526614</v>
+        <v>0.2455661472833419</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>538</v>
@@ -1499,19 +1499,19 @@
         <v>578898</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>535317</v>
+        <v>540444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>620099</v>
+        <v>624672</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3002413972339754</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.277638448661645</v>
+        <v>0.2802975842888807</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3216101807724025</v>
+        <v>0.3239818519258947</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>135090</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113976</v>
+        <v>115310</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>157439</v>
+        <v>159148</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1993610042965751</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1682025156915678</v>
+        <v>0.17017025926267</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2323432000863254</v>
+        <v>0.2348660224234734</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>249</v>
@@ -1624,19 +1624,19 @@
         <v>247516</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>222131</v>
+        <v>224586</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>271057</v>
+        <v>275959</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.36194921159524</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3248283319183495</v>
+        <v>0.3284186239235306</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3963745080652132</v>
+        <v>0.4035431055688401</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>371</v>
@@ -1645,19 +1645,19 @@
         <v>382605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>351481</v>
+        <v>351302</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>415655</v>
+        <v>415537</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2810269862489527</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2581657983774721</v>
+        <v>0.2580342733962486</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3053022750704102</v>
+        <v>0.3052157629793115</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>104897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86193</v>
+        <v>89026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>124479</v>
+        <v>125665</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.154804003448152</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1272002069822089</v>
+        <v>0.1313823806526517</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1837022723423288</v>
+        <v>0.1854523656398058</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -1695,19 +1695,19 @@
         <v>126644</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>107068</v>
+        <v>108956</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>148636</v>
+        <v>147165</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1851948296682824</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1565688081007085</v>
+        <v>0.159329379980208</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2173539358992549</v>
+        <v>0.2152037958172796</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>236</v>
@@ -1716,19 +1716,19 @@
         <v>231541</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>204045</v>
+        <v>206522</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>258321</v>
+        <v>261286</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1700689276812602</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1498731694274085</v>
+        <v>0.1516923188194734</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1897392753026531</v>
+        <v>0.1919172242051169</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>129028</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>108533</v>
+        <v>108481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>151065</v>
+        <v>149889</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1904149314637494</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1601695052188796</v>
+        <v>0.1600925796941934</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2229375356258047</v>
+        <v>0.2212010616985417</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>108</v>
@@ -1766,19 +1766,19 @@
         <v>105355</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88099</v>
+        <v>86759</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>124990</v>
+        <v>124147</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1540632257794201</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1288301172528165</v>
+        <v>0.1268696895866614</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.182776911820154</v>
+        <v>0.1815435484790626</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>233</v>
@@ -1787,19 +1787,19 @@
         <v>234382</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>209474</v>
+        <v>208031</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>265618</v>
+        <v>263077</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1721559335346975</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1538605260131389</v>
+        <v>0.1528008960211395</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1950986319507161</v>
+        <v>0.1932320896025123</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>68273</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54031</v>
+        <v>52349</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86583</v>
+        <v>85156</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1007558025613277</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07973761831868331</v>
+        <v>0.07725499829834649</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1277769326740514</v>
+        <v>0.1256710216913532</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -1837,19 +1837,19 @@
         <v>43227</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31423</v>
+        <v>32726</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57873</v>
+        <v>59104</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0632121264883047</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04595118866347716</v>
+        <v>0.04785597722741491</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08462876918159555</v>
+        <v>0.08642966152722724</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>105</v>
@@ -1858,19 +1858,19 @@
         <v>111500</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>93082</v>
+        <v>92070</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>134983</v>
+        <v>131901</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0818980931151975</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06836956478388292</v>
+        <v>0.0676264474088476</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09914651855176217</v>
+        <v>0.0968823948991004</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>240325</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>216830</v>
+        <v>215545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269209</v>
+        <v>266926</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3546642582301959</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3199911774660835</v>
+        <v>0.3180940815686336</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3972902531788071</v>
+        <v>0.3939203055553215</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>161</v>
@@ -1908,19 +1908,19 @@
         <v>161100</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>139825</v>
+        <v>142171</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>183209</v>
+        <v>183948</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2355806064687528</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2044705768281813</v>
+        <v>0.2079012285899212</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2679121791533543</v>
+        <v>0.2689925443181567</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>391</v>
@@ -1929,19 +1929,19 @@
         <v>401425</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>366571</v>
+        <v>368054</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>436542</v>
+        <v>437291</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2948500594198921</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.269249279735182</v>
+        <v>0.2703391423289458</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.320643970887582</v>
+        <v>0.3211938199992134</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>169258</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>147404</v>
+        <v>145271</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>192551</v>
+        <v>192725</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1798070021832487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1565908246407309</v>
+        <v>0.1543244912443109</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2045519178130573</v>
+        <v>0.204736618697923</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>301</v>
@@ -2054,19 +2054,19 @@
         <v>311768</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>282684</v>
+        <v>283235</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>339267</v>
+        <v>343079</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3005337356366653</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.272497835388518</v>
+        <v>0.2730284591264928</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3270423130563113</v>
+        <v>0.3307166594328921</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>474</v>
@@ -2075,19 +2075,19 @@
         <v>481026</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>445938</v>
+        <v>444564</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>517874</v>
+        <v>522437</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2431004720308513</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.225367479300322</v>
+        <v>0.2246732567218362</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2617223931619408</v>
+        <v>0.264028850878147</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>153030</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>129387</v>
+        <v>133830</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>173914</v>
+        <v>177347</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1625678477283729</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1374512359128373</v>
+        <v>0.1421704947751849</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1847529832191031</v>
+        <v>0.1884004985744969</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>230</v>
@@ -2125,19 +2125,19 @@
         <v>241630</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>217159</v>
+        <v>215083</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>272400</v>
+        <v>272095</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2329230024100509</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2093343305930171</v>
+        <v>0.2073330396935041</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.26258448742756</v>
+        <v>0.2622901613659643</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>390</v>
@@ -2146,19 +2146,19 @@
         <v>394660</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>358850</v>
+        <v>359634</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>431774</v>
+        <v>431494</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1994529827277924</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1813550657668187</v>
+        <v>0.1817513143546104</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.218209725917613</v>
+        <v>0.2180677886039553</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>223191</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>197440</v>
+        <v>196288</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>247532</v>
+        <v>248196</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2371014814049494</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2097452031248066</v>
+        <v>0.20852159408155</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2629588044768572</v>
+        <v>0.2636649597785549</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>197</v>
@@ -2196,19 +2196,19 @@
         <v>205635</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>180838</v>
+        <v>179801</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>233369</v>
+        <v>231828</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1982254368868177</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1743217171638465</v>
+        <v>0.173321598136414</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2249599622357554</v>
+        <v>0.2234745847504088</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>433</v>
@@ -2217,19 +2217,19 @@
         <v>428827</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>395292</v>
+        <v>393612</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>464913</v>
+        <v>462275</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2167199165177335</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1997722147836851</v>
+        <v>0.1989233965715764</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2349574529187835</v>
+        <v>0.2336239616305785</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>134193</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>115670</v>
+        <v>111963</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>156393</v>
+        <v>155322</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1425569394561237</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.122879323689899</v>
+        <v>0.1189414268136254</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1661396057275543</v>
+        <v>0.1650026876236801</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>84</v>
@@ -2267,19 +2267,19 @@
         <v>87497</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>69793</v>
+        <v>70555</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>105395</v>
+        <v>105031</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08434418888781763</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06727842258138514</v>
+        <v>0.0680124901582823</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1015972175454173</v>
+        <v>0.10124664938465</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>224</v>
@@ -2288,19 +2288,19 @@
         <v>221690</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>192673</v>
+        <v>198854</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>250927</v>
+        <v>252897</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1120377092289364</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09737270924065314</v>
+        <v>0.1004964614594322</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1268134666828324</v>
+        <v>0.1278087285127478</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>261659</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>236855</v>
+        <v>237392</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>288987</v>
+        <v>292211</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2779667292273054</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2516165697222841</v>
+        <v>0.2521873632618263</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3069982646906287</v>
+        <v>0.3104223700317866</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>184</v>
@@ -2338,19 +2338,19 @@
         <v>190851</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>167955</v>
+        <v>167291</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>218320</v>
+        <v>217747</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1839736361786485</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1619025554703209</v>
+        <v>0.1612627948056979</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2104530048363421</v>
+        <v>0.2099006110554894</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>468</v>
@@ -2359,19 +2359,19 @@
         <v>452510</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>417043</v>
+        <v>418538</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>491118</v>
+        <v>488670</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2286889194946864</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2107646240344798</v>
+        <v>0.2115200924848435</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2482005591493233</v>
+        <v>0.2469636109477343</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>441252</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>402063</v>
+        <v>402969</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>482514</v>
+        <v>483019</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1347854298757404</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.122814537624017</v>
+        <v>0.1230914941697657</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1473892385312791</v>
+        <v>0.1475434802217786</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>904</v>
@@ -2484,19 +2484,19 @@
         <v>933376</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>880909</v>
+        <v>879813</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>986839</v>
+        <v>987025</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2765689859375337</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2610224615783016</v>
+        <v>0.2606979348696017</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.292410665866998</v>
+        <v>0.2924660232790543</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1327</v>
@@ -2505,19 +2505,19 @@
         <v>1374628</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1306325</v>
+        <v>1308030</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1442926</v>
+        <v>1448759</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2067551954208427</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1964819053778004</v>
+        <v>0.1967383398652488</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2170277895763091</v>
+        <v>0.2179050327323319</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>428155</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>388365</v>
+        <v>392929</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>465421</v>
+        <v>473342</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1307846747666707</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1186305430351367</v>
+        <v>0.1200246417816211</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1421678774914401</v>
+        <v>0.1445875306285639</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>674</v>
@@ -2555,19 +2555,19 @@
         <v>687351</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>638155</v>
+        <v>642656</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>737060</v>
+        <v>732417</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2036693432261636</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1890919737492117</v>
+        <v>0.1904255900345286</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2183987452696293</v>
+        <v>0.2170228604967857</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1095</v>
@@ -2576,19 +2576,19 @@
         <v>1115506</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1047595</v>
+        <v>1053573</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1178243</v>
+        <v>1175058</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1677811547997719</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1575667278495327</v>
+        <v>0.1584658785339285</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1772172790329828</v>
+        <v>0.1767383026726114</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>764129</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>715858</v>
+        <v>714527</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>814644</v>
+        <v>808809</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2334116447628209</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2186666565416305</v>
+        <v>0.2182603419101291</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2488420177591909</v>
+        <v>0.2470596169708326</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>714</v>
@@ -2626,19 +2626,19 @@
         <v>726375</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>675924</v>
+        <v>680868</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>774383</v>
+        <v>776029</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2152325330505266</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2002832713690728</v>
+        <v>0.2017484883838951</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2294578568137084</v>
+        <v>0.2299456591309964</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1471</v>
@@ -2647,19 +2647,19 @@
         <v>1490504</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1421192</v>
+        <v>1423354</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1553858</v>
+        <v>1556709</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.224183872205178</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2137588507175562</v>
+        <v>0.2140839292018948</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2337127823763131</v>
+        <v>0.2341416651769977</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>477602</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>438872</v>
+        <v>436029</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>518640</v>
+        <v>523408</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1458889779268993</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1340582528161397</v>
+        <v>0.1331900325943065</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1584244939704954</v>
+        <v>0.1598809292820162</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>264</v>
@@ -2697,19 +2697,19 @@
         <v>271097</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>239293</v>
+        <v>241002</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>302661</v>
+        <v>304177</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08032888400982449</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0709049555837917</v>
+        <v>0.07141150488464701</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08968167854655568</v>
+        <v>0.09013085409592826</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>728</v>
@@ -2718,19 +2718,19 @@
         <v>748700</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>701033</v>
+        <v>695322</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>805085</v>
+        <v>799209</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1126104742739766</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1054410017286983</v>
+        <v>0.1045821372951423</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.12109133560865</v>
+        <v>0.1202074876852713</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>1162601</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1104631</v>
+        <v>1105699</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1216065</v>
+        <v>1218859</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3551292726678688</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3374217437492606</v>
+        <v>0.3377481501460398</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3714606004828344</v>
+        <v>0.3723139638136153</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>737</v>
@@ -2768,19 +2768,19 @@
         <v>756640</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>708823</v>
+        <v>712294</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>803272</v>
+        <v>807749</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2242002537759516</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2100317034201133</v>
+        <v>0.2110602321838844</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2380179994286388</v>
+        <v>0.2393446675083711</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1883</v>
@@ -2789,19 +2789,19 @@
         <v>1919240</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1848554</v>
+        <v>1841215</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1990609</v>
+        <v>1992695</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2886693033002309</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2780374811500056</v>
+        <v>0.2769336691266092</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2994037100927935</v>
+        <v>0.2997175016305417</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>63284</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46525</v>
+        <v>48897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79990</v>
+        <v>80409</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09019291995923151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06630793692286693</v>
+        <v>0.06968846112643494</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1140026870297968</v>
+        <v>0.1145993212312863</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -3154,19 +3154,19 @@
         <v>106345</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88133</v>
+        <v>87565</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125033</v>
+        <v>126796</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1528106268492521</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1266420327321116</v>
+        <v>0.1258250879369515</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1796638622904527</v>
+        <v>0.1821980365238289</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>160</v>
@@ -3175,19 +3175,19 @@
         <v>169629</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>145916</v>
+        <v>147578</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>196258</v>
+        <v>195109</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1213734292797833</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1044064194623551</v>
+        <v>0.1055955249832194</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1404269014396528</v>
+        <v>0.1396049076636099</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>69693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55062</v>
+        <v>54607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87291</v>
+        <v>88768</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09932697687224411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07847494102150974</v>
+        <v>0.07782634184380123</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1244072075520327</v>
+        <v>0.1265121655391209</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>114</v>
@@ -3225,19 +3225,19 @@
         <v>121110</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>100046</v>
+        <v>100953</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141696</v>
+        <v>140673</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1740277050497789</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1437604060712767</v>
+        <v>0.1450624772031664</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2036085196569667</v>
+        <v>0.2021381277554368</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>179</v>
@@ -3246,19 +3246,19 @@
         <v>190803</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>164670</v>
+        <v>164665</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>218496</v>
+        <v>217305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1365242309218464</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1178248936664199</v>
+        <v>0.1178214946570718</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1563390249387114</v>
+        <v>0.1554868184494425</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>133415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>113535</v>
+        <v>111894</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>156643</v>
+        <v>152788</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1901440333073104</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1618108216888348</v>
+        <v>0.1594717498892063</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2232476132184665</v>
+        <v>0.2177546057749137</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>168</v>
@@ -3296,19 +3296,19 @@
         <v>180303</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>156530</v>
+        <v>156520</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>205305</v>
+        <v>204600</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2590833932558214</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2249233045495353</v>
+        <v>0.2249089867823044</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2950099046931746</v>
+        <v>0.2939966130850348</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>297</v>
@@ -3317,19 +3317,19 @@
         <v>313718</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>280601</v>
+        <v>282472</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>344644</v>
+        <v>346021</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2244724120070101</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2007763791740736</v>
+        <v>0.2021149617685847</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2466009582726131</v>
+        <v>0.2475857190912452</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>113494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>94412</v>
+        <v>94069</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134172</v>
+        <v>134607</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1617524905115132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1345559489476756</v>
+        <v>0.1340677158209495</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1912221393444328</v>
+        <v>0.1918424156324382</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -3367,19 +3367,19 @@
         <v>64345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50649</v>
+        <v>47278</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81686</v>
+        <v>79592</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09246016991425846</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07277962919593572</v>
+        <v>0.06793565281330396</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1173772872611169</v>
+        <v>0.1143688448667176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>166</v>
@@ -3388,19 +3388,19 @@
         <v>177840</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>153561</v>
+        <v>151582</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>202493</v>
+        <v>204067</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1272483549317784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1098764690456359</v>
+        <v>0.1084603639980685</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1448883726819941</v>
+        <v>0.1460146455478606</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>321767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>295164</v>
+        <v>296117</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>346231</v>
+        <v>348837</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4585835793497007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4206682906179851</v>
+        <v>0.4220268553708065</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4934504726402887</v>
+        <v>0.4971632353262287</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>207</v>
@@ -3438,19 +3438,19 @@
         <v>223822</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>197395</v>
+        <v>199077</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>249394</v>
+        <v>250066</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3216181049308893</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2836439563574793</v>
+        <v>0.2860614239224504</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3583632192912195</v>
+        <v>0.3593296284547711</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>519</v>
@@ -3459,19 +3459,19 @@
         <v>545589</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>511023</v>
+        <v>505503</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>585996</v>
+        <v>581286</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3903815728595818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3656489653287379</v>
+        <v>0.3616993069232199</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4192936017125319</v>
+        <v>0.4159232036552556</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>120315</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100371</v>
+        <v>99760</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143411</v>
+        <v>143404</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1184226747635965</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0987918545332791</v>
+        <v>0.09819050413478529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1411545984149495</v>
+        <v>0.1411479532381312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>214</v>
@@ -3584,19 +3584,19 @@
         <v>237595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210521</v>
+        <v>211713</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>267374</v>
+        <v>266772</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2309388241727995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.204622829204811</v>
+        <v>0.2057820926365743</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2598835254737399</v>
+        <v>0.2592980848797507</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>324</v>
@@ -3605,19 +3605,19 @@
         <v>357910</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>322367</v>
+        <v>321622</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>395474</v>
+        <v>392653</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1750340295415466</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1576516125192693</v>
+        <v>0.1572871949462491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1934043702671212</v>
+        <v>0.1920246848246437</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>98768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79276</v>
+        <v>81261</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>118727</v>
+        <v>124591</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09721478202635603</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07802859266064963</v>
+        <v>0.07998266874262741</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1168593456003556</v>
+        <v>0.1226309390257104</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>175</v>
@@ -3655,19 +3655,19 @@
         <v>194462</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>169850</v>
+        <v>170553</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>221925</v>
+        <v>221577</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1890140781436017</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1650918014231655</v>
+        <v>0.1657748220294215</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2157076028122979</v>
+        <v>0.2153693746261784</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>265</v>
@@ -3676,19 +3676,19 @@
         <v>293230</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>264736</v>
+        <v>262995</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>328821</v>
+        <v>325505</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1434026630385232</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1294675363210674</v>
+        <v>0.1286162469143377</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1608079762418927</v>
+        <v>0.1591865467163325</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>209425</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>185233</v>
+        <v>183475</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>238082</v>
+        <v>236016</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2061309035665478</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1823188888227315</v>
+        <v>0.1805889877092167</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2343365693374986</v>
+        <v>0.2323033331966436</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>229</v>
@@ -3726,19 +3726,19 @@
         <v>245589</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>217671</v>
+        <v>220483</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>278097</v>
+        <v>279315</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2387082528114226</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.211572615456156</v>
+        <v>0.2143063052769127</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2703062352092126</v>
+        <v>0.2714894394022794</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>425</v>
@@ -3747,19 +3747,19 @@
         <v>455014</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>419473</v>
+        <v>417747</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>494191</v>
+        <v>495493</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2225218650908314</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2051408606127909</v>
+        <v>0.204296889183002</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2416813852382546</v>
+        <v>0.2423181877891401</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>133432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111742</v>
+        <v>110195</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156556</v>
+        <v>157925</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.131333234082486</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1099838807422042</v>
+        <v>0.1084616893504627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1540936054540316</v>
+        <v>0.1554405435189989</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -3797,19 +3797,19 @@
         <v>79029</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64265</v>
+        <v>62005</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101408</v>
+        <v>98214</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07681450408713657</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.062464434631555</v>
+        <v>0.06026770821503644</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09856672369761821</v>
+        <v>0.09546243501199202</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -3818,19 +3818,19 @@
         <v>212461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>182807</v>
+        <v>185331</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>244071</v>
+        <v>243394</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.103902690271523</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08940079144145034</v>
+        <v>0.09063494143750113</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1193617018116646</v>
+        <v>0.1190305510415329</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>454041</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>421972</v>
+        <v>423783</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>487893</v>
+        <v>487871</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4468984055610137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4153342698249144</v>
+        <v>0.4171169509704753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4802180280912807</v>
+        <v>0.4801961911192279</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>248</v>
@@ -3868,19 +3868,19 @@
         <v>272149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>242905</v>
+        <v>244249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>299471</v>
+        <v>301062</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2645243407850396</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2361002064137508</v>
+        <v>0.2374058378437067</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2910813737803116</v>
+        <v>0.2926280154513415</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>662</v>
@@ -3889,19 +3889,19 @@
         <v>726189</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>678838</v>
+        <v>682583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>767757</v>
+        <v>771365</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3551387520575757</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3319819841298435</v>
+        <v>0.3338134513112137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3754668753756408</v>
+        <v>0.3772313716073366</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>76906</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59739</v>
+        <v>61385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94132</v>
+        <v>95022</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1016402936241703</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07895175275478605</v>
+        <v>0.0811276189617384</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1244057129023252</v>
+        <v>0.1255813811421621</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -4014,19 +4014,19 @@
         <v>187616</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>164019</v>
+        <v>163153</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>214225</v>
+        <v>215451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2420410850031247</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.211598939835384</v>
+        <v>0.2104816940435555</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2763681808051004</v>
+        <v>0.2779500946910883</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -4035,19 +4035,19 @@
         <v>264522</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>235346</v>
+        <v>236922</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>299392</v>
+        <v>302372</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1726880196533147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1536407124944315</v>
+        <v>0.1546696801316978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1954516416084467</v>
+        <v>0.1973974042727076</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>86009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70225</v>
+        <v>69670</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107514</v>
+        <v>107589</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1136702484763009</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09280949543221045</v>
+        <v>0.09207686773441887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1420920859518333</v>
+        <v>0.14219041133538</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -4085,19 +4085,19 @@
         <v>109747</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91764</v>
+        <v>90395</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>130670</v>
+        <v>130282</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1415826512730356</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1183831543901234</v>
+        <v>0.1166177958039342</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1685756085888809</v>
+        <v>0.1680753369782448</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>180</v>
@@ -4106,19 +4106,19 @@
         <v>195755</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>170410</v>
+        <v>167646</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>227087</v>
+        <v>225143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1277949035244689</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1112485225163087</v>
+        <v>0.109444276049812</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1482488274844638</v>
+        <v>0.1469801647425716</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>200285</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>176585</v>
+        <v>174925</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>229918</v>
+        <v>227367</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2646990805656124</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2333763548768691</v>
+        <v>0.2311830344328686</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3038624251268029</v>
+        <v>0.3004905046915293</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>176</v>
@@ -4156,19 +4156,19 @@
         <v>190553</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>166410</v>
+        <v>166879</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>217153</v>
+        <v>217269</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2458292045739442</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2146829674579807</v>
+        <v>0.2152882853987666</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2801461905493269</v>
+        <v>0.2802952859823534</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>355</v>
@@ -4177,19 +4177,19 @@
         <v>390838</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>354563</v>
+        <v>354146</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>423984</v>
+        <v>426988</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2551502613140071</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2314690528774954</v>
+        <v>0.2311967147747613</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2767894886202436</v>
+        <v>0.2787502526926625</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>74409</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58511</v>
+        <v>58972</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93106</v>
+        <v>92066</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09833979093942866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07732911476821877</v>
+        <v>0.07793788937776104</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1230503031609566</v>
+        <v>0.1216754509919392</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -4227,19 +4227,19 @@
         <v>69068</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53873</v>
+        <v>53530</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86544</v>
+        <v>86018</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08910332743763771</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06950046550906777</v>
+        <v>0.06905837441617128</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1116492341245914</v>
+        <v>0.1109708172223805</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>135</v>
@@ -4248,19 +4248,19 @@
         <v>143477</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>122295</v>
+        <v>123770</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>168987</v>
+        <v>169863</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09366581637056592</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07983759010286402</v>
+        <v>0.08080072207477675</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1103196329909243</v>
+        <v>0.1108913971465778</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>319043</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>291733</v>
+        <v>289046</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>350018</v>
+        <v>347776</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4216505863944878</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3855570925844194</v>
+        <v>0.3820064654477067</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4625871278616788</v>
+        <v>0.4596235097165144</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>195</v>
@@ -4298,19 +4298,19 @@
         <v>218159</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>191878</v>
+        <v>193012</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>242441</v>
+        <v>245994</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2814437317122578</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2475389931070368</v>
+        <v>0.2490027261742235</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3127700662307463</v>
+        <v>0.3173530817677215</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>486</v>
@@ -4319,19 +4319,19 @@
         <v>537202</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>498922</v>
+        <v>497959</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>575848</v>
+        <v>577184</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3507009991376434</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3257106491269396</v>
+        <v>0.3250823012464328</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3759301535774637</v>
+        <v>0.3768025895652387</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>105526</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>87683</v>
+        <v>87627</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127135</v>
+        <v>127407</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1113449114826603</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09251830347918116</v>
+        <v>0.09245868096935171</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1341459260177515</v>
+        <v>0.1344329390775033</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>252</v>
@@ -4444,19 +4444,19 @@
         <v>263920</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>235986</v>
+        <v>235112</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>295086</v>
+        <v>294407</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2516194729868536</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2249867601298139</v>
+        <v>0.2241537856656469</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2813322196378088</v>
+        <v>0.2806847605218697</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>356</v>
@@ -4465,19 +4465,19 @@
         <v>369446</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>333355</v>
+        <v>335497</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>403539</v>
+        <v>403364</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1850353084221326</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1669590393181002</v>
+        <v>0.1680317305952044</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2021105816534824</v>
+        <v>0.2020225917400539</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>125557</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>105356</v>
+        <v>103405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>147482</v>
+        <v>147940</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1324804428767689</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1111661161203974</v>
+        <v>0.1091070964384446</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.155614104880204</v>
+        <v>0.156098165003402</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>181</v>
@@ -4515,19 +4515,19 @@
         <v>190116</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>165150</v>
+        <v>164689</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>215341</v>
+        <v>215455</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1812551143229962</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1574528929651617</v>
+        <v>0.1570128316681244</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2053044451350008</v>
+        <v>0.205413187016553</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>301</v>
@@ -4536,19 +4536,19 @@
         <v>315673</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>282810</v>
+        <v>284222</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>350947</v>
+        <v>353256</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1581032276562985</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1416439037767873</v>
+        <v>0.1423512365092728</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1757697503630475</v>
+        <v>0.1769262968690582</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>226632</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>200568</v>
+        <v>201495</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>253981</v>
+        <v>252663</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2391294886329425</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2116274608585354</v>
+        <v>0.2126061713063667</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2679865309003651</v>
+        <v>0.2665957071601633</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>219</v>
@@ -4586,19 +4586,19 @@
         <v>227246</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>201315</v>
+        <v>197790</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>255146</v>
+        <v>255993</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2166545967240744</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1919323073765549</v>
+        <v>0.1885708790266095</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2432541253079397</v>
+        <v>0.2440612706049235</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>444</v>
@@ -4607,19 +4607,19 @@
         <v>453879</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>417498</v>
+        <v>416689</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>490313</v>
+        <v>491431</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.227322759827829</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2091015628491268</v>
+        <v>0.2086966509863691</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.24557088452089</v>
+        <v>0.2461306820156482</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>119843</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>99395</v>
+        <v>100601</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>140507</v>
+        <v>144051</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1264511795347517</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1048760003348714</v>
+        <v>0.1061489044977822</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1482552045700484</v>
+        <v>0.1519943727230575</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>90</v>
@@ -4657,19 +4657,19 @@
         <v>98469</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>80634</v>
+        <v>81266</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>121576</v>
+        <v>119653</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0938794673407609</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07687605893174633</v>
+        <v>0.07747827350262619</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1159090687538965</v>
+        <v>0.114076569526196</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>206</v>
@@ -4678,19 +4678,19 @@
         <v>218312</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>189903</v>
+        <v>191131</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>245729</v>
+        <v>250820</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1093402908972443</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09511172359302474</v>
+        <v>0.09572708564086768</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1230723073485652</v>
+        <v>0.1256219603695814</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>370181</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>339097</v>
+        <v>339814</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>402454</v>
+        <v>398635</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3905939774728766</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.357795862066459</v>
+        <v>0.3585522176780563</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4246461283809359</v>
+        <v>0.4206171040434741</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>259</v>
@@ -4728,19 +4728,19 @@
         <v>269135</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>241630</v>
+        <v>240984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>300310</v>
+        <v>298993</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.256591348625315</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2303679445429729</v>
+        <v>0.2297516676472058</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2863130582978846</v>
+        <v>0.2850575431368459</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>604</v>
@@ -4749,19 +4749,19 @@
         <v>639317</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>599363</v>
+        <v>595271</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>684387</v>
+        <v>682204</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3201984131964955</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3001878908041251</v>
+        <v>0.2981382483176545</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3427713737086754</v>
+        <v>0.3416784432029956</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>366032</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>331045</v>
+        <v>330330</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>404641</v>
+        <v>403841</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1069634392587665</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09673935023931789</v>
+        <v>0.0965304974924357</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1182458644694698</v>
+        <v>0.1180120396215132</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>730</v>
@@ -4874,19 +4874,19 @@
         <v>795477</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>740979</v>
+        <v>742347</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>847084</v>
+        <v>848090</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2241551155009284</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2087984381719067</v>
+        <v>0.2091839829254024</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2386975030524528</v>
+        <v>0.2389808004189922</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1075</v>
@@ -4895,19 +4895,19 @@
         <v>1161509</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1095867</v>
+        <v>1100512</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1226153</v>
+        <v>1227779</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1666247121567363</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1572081302276409</v>
+        <v>0.1578743779437875</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1758982418931578</v>
+        <v>0.176131624250541</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>380028</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>341445</v>
+        <v>345948</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>417261</v>
+        <v>415628</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.111053286657116</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0997784249955268</v>
+        <v>0.1010945077404011</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1219338457210753</v>
+        <v>0.1214566097655259</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>573</v>
@@ -4945,19 +4945,19 @@
         <v>615435</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>570467</v>
+        <v>570161</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>659944</v>
+        <v>669557</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1734217364760733</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1607502554516202</v>
+        <v>0.1606640608756418</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1859636482097267</v>
+        <v>0.1886726746564679</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>925</v>
@@ -4966,19 +4966,19 @@
         <v>995463</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>935093</v>
+        <v>937020</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1061267</v>
+        <v>1055740</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1428045272246048</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1341442335635719</v>
+        <v>0.1344205398846972</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1522445617316786</v>
+        <v>0.151451709173389</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>769759</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>723837</v>
+        <v>723149</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>819829</v>
+        <v>822823</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2249421349784166</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2115226176292606</v>
+        <v>0.2113216496582097</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2395738421437818</v>
+        <v>0.2404489961263938</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>792</v>
@@ -5016,19 +5016,19 @@
         <v>843690</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>794993</v>
+        <v>792036</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>895902</v>
+        <v>899102</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2377410221746418</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2240188762569378</v>
+        <v>0.2231857590075615</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.25245380102452</v>
+        <v>0.253355554265549</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1521</v>
@@ -5037,19 +5037,19 @@
         <v>1613448</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1545967</v>
+        <v>1541259</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1696020</v>
+        <v>1690744</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2314579382017312</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2217774315056647</v>
+        <v>0.2211019686006598</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2433032571486944</v>
+        <v>0.2425464633870433</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>441178</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>404014</v>
+        <v>401887</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>483990</v>
+        <v>485335</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1289230569422713</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1180626076852141</v>
+        <v>0.1174410926674065</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1414334968675062</v>
+        <v>0.1418266387165091</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>286</v>
@@ -5087,19 +5087,19 @@
         <v>310911</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>280443</v>
+        <v>279997</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>346355</v>
+        <v>349185</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08761062134728628</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07902526045868757</v>
+        <v>0.07889943565734035</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09759837659257814</v>
+        <v>0.09839588217009572</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>702</v>
@@ -5108,19 +5108,19 @@
         <v>752089</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>703403</v>
+        <v>700818</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>805981</v>
+        <v>807387</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1078912518418894</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1009070542500573</v>
+        <v>0.1005361453605856</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.115622345852602</v>
+        <v>0.1158241136867936</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>1465032</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1405132</v>
+        <v>1400840</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1527619</v>
+        <v>1521171</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4281180821634296</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4106136903532633</v>
+        <v>0.4093595943627031</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4464073429255962</v>
+        <v>0.4445229870550882</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>909</v>
@@ -5158,19 +5158,19 @@
         <v>983265</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>928195</v>
+        <v>930035</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1038736</v>
+        <v>1038636</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2770715045010703</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2615534632060987</v>
+        <v>0.2620719891936847</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2927024684988713</v>
+        <v>0.2926742787115554</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2271</v>
@@ -5179,19 +5179,19 @@
         <v>2448297</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2356006</v>
+        <v>2362940</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2532570</v>
+        <v>2533843</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3512215705750383</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3379818640784998</v>
+        <v>0.3389765221952737</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3633109203976116</v>
+        <v>0.3634935084380584</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>43796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31279</v>
+        <v>32457</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58109</v>
+        <v>58196</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06490215880367564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04635328965481528</v>
+        <v>0.04809888618938305</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08611329001107293</v>
+        <v>0.08624179137016209</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -5544,19 +5544,19 @@
         <v>77691</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63029</v>
+        <v>63082</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94732</v>
+        <v>96560</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1158406859465047</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09397838973216052</v>
+        <v>0.09405829436906619</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1412490133508142</v>
+        <v>0.1439749708821841</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -5565,19 +5565,19 @@
         <v>121487</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101323</v>
+        <v>102187</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143618</v>
+        <v>144635</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09029325773804141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0753069227612531</v>
+        <v>0.07594886609841264</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1067418805257076</v>
+        <v>0.1074979436430767</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>105832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89618</v>
+        <v>87126</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>128079</v>
+        <v>124607</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.15683397563448</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1328064263799937</v>
+        <v>0.129113174651822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1898032965089519</v>
+        <v>0.1846576391098707</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>171</v>
@@ -5615,19 +5615,19 @@
         <v>166797</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>145108</v>
+        <v>145149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>190637</v>
+        <v>188947</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2487011978524944</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2163627320922069</v>
+        <v>0.2164241116809479</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2842484075914236</v>
+        <v>0.2817286307292407</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>274</v>
@@ -5636,19 +5636,19 @@
         <v>272628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>242808</v>
+        <v>246691</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>300695</v>
+        <v>307067</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2026266174519878</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1804630327144417</v>
+        <v>0.1833492439134885</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2234867705593973</v>
+        <v>0.2282226417338382</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>139099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>119833</v>
+        <v>117763</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>161529</v>
+        <v>160809</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2061341212495379</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1775827826220222</v>
+        <v>0.1745147589283459</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2393736313303544</v>
+        <v>0.2383064260585042</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>147</v>
@@ -5686,19 +5686,19 @@
         <v>145615</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>126205</v>
+        <v>126735</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>166224</v>
+        <v>169750</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2171180735629934</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1881767082563815</v>
+        <v>0.1889680541442717</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2478475537450567</v>
+        <v>0.2531048268343855</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>281</v>
@@ -5707,19 +5707,19 @@
         <v>284714</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>256085</v>
+        <v>256283</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>314664</v>
+        <v>313164</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2116092426463403</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1903311061993671</v>
+        <v>0.1904781737058536</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2338689658091861</v>
+        <v>0.2327540809684827</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>72446</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56937</v>
+        <v>57077</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89947</v>
+        <v>89597</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.107359492159035</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08437545324419572</v>
+        <v>0.08458325751024776</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1332944372535292</v>
+        <v>0.1327756748466083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -5757,19 +5757,19 @@
         <v>55284</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42030</v>
+        <v>41947</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69054</v>
+        <v>71223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08243122849516417</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06266784897105386</v>
+        <v>0.06254477980973182</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1029619292587093</v>
+        <v>0.106196358124324</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>128</v>
@@ -5778,19 +5778,19 @@
         <v>127730</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108339</v>
+        <v>107058</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150643</v>
+        <v>151091</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0949336124869251</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08052106447534095</v>
+        <v>0.07956919540257254</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.111962995389094</v>
+        <v>0.1122958734002772</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>313627</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>286996</v>
+        <v>288487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>340349</v>
+        <v>339658</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4647702521532714</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4253054719494227</v>
+        <v>0.427515264265282</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5043705805689137</v>
+        <v>0.5033458096231042</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>210</v>
@@ -5828,19 +5828,19 @@
         <v>225284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>201164</v>
+        <v>203079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>250485</v>
+        <v>248902</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3359088141428432</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2999440468156965</v>
+        <v>0.3027996793395473</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.373484046824275</v>
+        <v>0.3711239452587092</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>513</v>
@@ -5849,19 +5849,19 @@
         <v>538911</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>504039</v>
+        <v>502400</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>577364</v>
+        <v>576106</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4005372696767054</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3746192613058346</v>
+        <v>0.3734007844618471</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4291166765155883</v>
+        <v>0.4281816409563243</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>97772</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77296</v>
+        <v>78984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119867</v>
+        <v>117590</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0962168512460975</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07606667075608213</v>
+        <v>0.07772818443417584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.117960508022539</v>
+        <v>0.1157194811066244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>173</v>
@@ -5974,19 +5974,19 @@
         <v>182666</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155662</v>
+        <v>159552</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>209154</v>
+        <v>208921</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1751500157192858</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.149257260435771</v>
+        <v>0.1529872996514348</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2005475807568095</v>
+        <v>0.2003240718402963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>257</v>
@@ -5995,19 +5995,19 @@
         <v>280438</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>251593</v>
+        <v>248829</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>314267</v>
+        <v>313586</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1361961960393871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.122187668346909</v>
+        <v>0.1208448931426885</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1526254685209376</v>
+        <v>0.1522948957446437</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>235636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>209560</v>
+        <v>205942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>264422</v>
+        <v>261159</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2318880783693188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2062269140826665</v>
+        <v>0.2026671557073141</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2602164024520996</v>
+        <v>0.2570057507985923</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>312</v>
@@ -6045,19 +6045,19 @@
         <v>322812</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>295491</v>
+        <v>293446</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>356486</v>
+        <v>354295</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3095292010611938</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2833325678322434</v>
+        <v>0.2813711849930276</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3418173984080389</v>
+        <v>0.3397167086476026</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>530</v>
@@ -6066,19 +6066,19 @@
         <v>558448</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>517851</v>
+        <v>518485</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>599005</v>
+        <v>601644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2712130089603246</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2514968568264802</v>
+        <v>0.2518051671166886</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2909101339925885</v>
+        <v>0.2921914778434474</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>227873</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>203866</v>
+        <v>202646</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>260834</v>
+        <v>257339</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2242485593617488</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2006241798249704</v>
+        <v>0.1994231353280747</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2566861529270077</v>
+        <v>0.2532458194386059</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>212</v>
@@ -6116,19 +6116,19 @@
         <v>224786</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>197456</v>
+        <v>199017</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>254048</v>
+        <v>252484</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2155363010235347</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1893308625671951</v>
+        <v>0.1908279523933681</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2435945745798284</v>
+        <v>0.2420951816184124</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>424</v>
@@ -6137,19 +6137,19 @@
         <v>452658</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>412103</v>
+        <v>413907</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>486344</v>
+        <v>491046</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2198358339584744</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2001400371205403</v>
+        <v>0.2010162629521547</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2361957228910785</v>
+        <v>0.2384788922584458</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>88812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72371</v>
+        <v>71377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108582</v>
+        <v>108739</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08739996713087575</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07122016219908889</v>
+        <v>0.07024218239067054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1068552915470769</v>
+        <v>0.1070097939535672</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -6187,19 +6187,19 @@
         <v>53878</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40084</v>
+        <v>39757</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70803</v>
+        <v>70564</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05166068277864642</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03843429911876702</v>
+        <v>0.03812150761050363</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06788945872059643</v>
+        <v>0.06766010999142578</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -6208,19 +6208,19 @@
         <v>142690</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119727</v>
+        <v>118245</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168353</v>
+        <v>164368</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06929815680413361</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05814610759823048</v>
+        <v>0.0574262247552205</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08176167265675011</v>
+        <v>0.07982638819503891</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>366068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335198</v>
+        <v>332135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>396887</v>
+        <v>397387</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3602465438919591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3298668976950193</v>
+        <v>0.3268530077236614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3905751324805805</v>
+        <v>0.3910673442882436</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>232</v>
@@ -6258,19 +6258,19 @@
         <v>258772</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>228355</v>
+        <v>231312</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>286153</v>
+        <v>288523</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2481237994173393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2189583660709186</v>
+        <v>0.2217944548054332</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2743789243539403</v>
+        <v>0.2766507298917694</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>580</v>
@@ -6279,19 +6279,19 @@
         <v>624840</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>586923</v>
+        <v>584437</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>669599</v>
+        <v>665565</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3034568042376803</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2850424241469417</v>
+        <v>0.2838346872000002</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3251940928413024</v>
+        <v>0.3232352099331374</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>78189</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61792</v>
+        <v>61084</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98208</v>
+        <v>97479</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1037636947396546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08200326232343984</v>
+        <v>0.08106448521783682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1303306283168538</v>
+        <v>0.12936408944821</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -6404,19 +6404,19 @@
         <v>143472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122443</v>
+        <v>122277</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>164549</v>
+        <v>165794</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1838934256143891</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1569402279196344</v>
+        <v>0.1567272498362647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2109093837612463</v>
+        <v>0.2125049351888844</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>205</v>
@@ -6425,19 +6425,19 @@
         <v>221661</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>194302</v>
+        <v>194335</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>250231</v>
+        <v>252182</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1445250606513183</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1266871228169414</v>
+        <v>0.1267081340494687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1631530053398822</v>
+        <v>0.1644252727641592</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>219620</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197196</v>
+        <v>197896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>250364</v>
+        <v>248884</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2914555407339356</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2616970212452018</v>
+        <v>0.2626265799391343</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3322552824621538</v>
+        <v>0.3302916419343024</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>269</v>
@@ -6475,19 +6475,19 @@
         <v>283368</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>254646</v>
+        <v>258444</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>308785</v>
+        <v>311585</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3632043688144527</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3263900727422495</v>
+        <v>0.3312578929212346</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3957813880262397</v>
+        <v>0.3993707610346699</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>470</v>
@@ -6496,19 +6496,19 @@
         <v>502988</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>463925</v>
+        <v>467794</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>537616</v>
+        <v>543914</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3279536070970307</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.302483598929306</v>
+        <v>0.3050062741348699</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3505311424904807</v>
+        <v>0.3546372394469771</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>176660</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>152207</v>
+        <v>152639</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>201356</v>
+        <v>199926</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2344442552726597</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2019927414437626</v>
+        <v>0.2025653859913156</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2672177444767513</v>
+        <v>0.265320009980994</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>139</v>
@@ -6546,19 +6546,19 @@
         <v>149664</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>128033</v>
+        <v>128812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>173834</v>
+        <v>174588</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1918299080370009</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1641045729113903</v>
+        <v>0.1651033296009982</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2228099655187843</v>
+        <v>0.2237767032085106</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>302</v>
@@ -6567,19 +6567,19 @@
         <v>326324</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>293790</v>
+        <v>294816</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>358968</v>
+        <v>358984</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2127666709129314</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.191553829473837</v>
+        <v>0.192223271492375</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2340509533967345</v>
+        <v>0.2340612527579912</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>59583</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44869</v>
+        <v>45013</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77514</v>
+        <v>77068</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07907217665245637</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05954529790310612</v>
+        <v>0.05973615788926192</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1028682283256197</v>
+        <v>0.1022757934887295</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -6617,19 +6617,19 @@
         <v>39366</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29001</v>
+        <v>28644</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53289</v>
+        <v>52347</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05045631803357958</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03717193915496359</v>
+        <v>0.03671473470241065</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06830273447003228</v>
+        <v>0.06709558593859204</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -6638,19 +6638,19 @@
         <v>98949</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79391</v>
+        <v>80198</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>120354</v>
+        <v>122257</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06451551370966024</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05176391016889834</v>
+        <v>0.05228987859296863</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07847222091716728</v>
+        <v>0.07971286385967483</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>219476</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194584</v>
+        <v>191071</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>246198</v>
+        <v>241649</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2912643326012938</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2582302179101419</v>
+        <v>0.2535682855388092</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3267264742500167</v>
+        <v>0.320690308079348</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>150</v>
@@ -6688,19 +6688,19 @@
         <v>164320</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>143308</v>
+        <v>139215</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>190575</v>
+        <v>187127</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2106159795005778</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1836838876144193</v>
+        <v>0.1784375809572306</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2442672790811832</v>
+        <v>0.2398474575508604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>355</v>
@@ -6709,19 +6709,19 @@
         <v>383796</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>350564</v>
+        <v>351182</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>417593</v>
+        <v>420467</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2502391476290594</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.228571455527303</v>
+        <v>0.2289742002814336</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2722747114938396</v>
+        <v>0.2741485937705734</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>128637</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106727</v>
+        <v>108280</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>152439</v>
+        <v>150557</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1373445955569653</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1139515624098114</v>
+        <v>0.1156089522721239</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1627569713019183</v>
+        <v>0.1607476240555681</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>203</v>
@@ -6834,19 +6834,19 @@
         <v>226278</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>198429</v>
+        <v>198446</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>255449</v>
+        <v>251339</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2170182822948872</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1903091975341482</v>
+        <v>0.1903256331525762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2449959091040885</v>
+        <v>0.2410538767605072</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>326</v>
@@ -6855,19 +6855,19 @@
         <v>354915</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>322225</v>
+        <v>317866</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>393481</v>
+        <v>393427</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1793161812789995</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1627999309759728</v>
+        <v>0.1605978185816731</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1988012249137613</v>
+        <v>0.1987737358779142</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>182500</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>160196</v>
+        <v>159221</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>207298</v>
+        <v>208868</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1948526222847509</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1710397315067217</v>
+        <v>0.1699984310477999</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2213292080196171</v>
+        <v>0.2230054738654698</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>241</v>
@@ -6905,19 +6905,19 @@
         <v>254509</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>229639</v>
+        <v>227037</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>285466</v>
+        <v>280925</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2440944379296574</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2202417988801711</v>
+        <v>0.2177460924959109</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2737840670688069</v>
+        <v>0.2694291332047211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>424</v>
@@ -6926,19 +6926,19 @@
         <v>437009</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>401257</v>
+        <v>401243</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>474568</v>
+        <v>475519</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2207928940490936</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2027297579974719</v>
+        <v>0.2027227783640599</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2397693204313397</v>
+        <v>0.2402494884412246</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>212259</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>186960</v>
+        <v>187402</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>236631</v>
+        <v>240157</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2266259433832363</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1996149246662245</v>
+        <v>0.2000873609063483</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2526478157921911</v>
+        <v>0.2564129399989572</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>205</v>
@@ -6976,19 +6976,19 @@
         <v>217262</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>191010</v>
+        <v>192721</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>246382</v>
+        <v>245010</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2083711276895915</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1831939984922055</v>
+        <v>0.1848351207781607</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2362995150976439</v>
+        <v>0.2349836098627791</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>423</v>
@@ -6997,19 +6997,19 @@
         <v>429520</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>390823</v>
+        <v>390576</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>468178</v>
+        <v>466813</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2170094238885878</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1974579475833968</v>
+        <v>0.1973332217300522</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2365405899427221</v>
+        <v>0.2358513198942026</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>58284</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45277</v>
+        <v>45322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75242</v>
+        <v>74182</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06222924948556706</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04834197301377479</v>
+        <v>0.04839013944047234</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08033470831381619</v>
+        <v>0.07920327768653304</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>50</v>
@@ -7047,19 +7047,19 @@
         <v>54402</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39806</v>
+        <v>41122</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>69294</v>
+        <v>70750</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05217551313204893</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03817739538380932</v>
+        <v>0.03943886653886627</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06645824903231541</v>
+        <v>0.06785483898889964</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>110</v>
@@ -7068,19 +7068,19 @@
         <v>112686</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>94428</v>
+        <v>92361</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>136446</v>
+        <v>134999</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05693300583894823</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04770852603202105</v>
+        <v>0.04666399999439044</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06893729693881911</v>
+        <v>0.06820669516390897</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>354923</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>328149</v>
+        <v>326857</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>387704</v>
+        <v>384319</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3789475892894804</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3503608777709094</v>
+        <v>0.348981818533572</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4139467193268641</v>
+        <v>0.4103327861732067</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>259</v>
@@ -7118,19 +7118,19 @@
         <v>290217</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>262420</v>
+        <v>261422</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>321955</v>
+        <v>321636</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2783406389538149</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2516812101718656</v>
+        <v>0.2507245496847118</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3087799108853229</v>
+        <v>0.3084741993576336</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>606</v>
@@ -7139,19 +7139,19 @@
         <v>645140</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>599430</v>
+        <v>602895</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>683693</v>
+        <v>687176</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3259484949443709</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3028541366046092</v>
+        <v>0.3046047392355303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3454269987383655</v>
+        <v>0.3471867244073094</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>348394</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>310426</v>
+        <v>310298</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>382607</v>
+        <v>387346</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1030418618226169</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09181241988190315</v>
+        <v>0.09177453342942397</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1131607817326188</v>
+        <v>0.1145624577055722</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>590</v>
@@ -7264,19 +7264,19 @@
         <v>630107</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>584911</v>
+        <v>584769</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>677037</v>
+        <v>683543</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1781754146714156</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1653955193545008</v>
+        <v>0.1653551180190765</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1914457298071703</v>
+        <v>0.1932856443580741</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>908</v>
@@ -7285,19 +7285,19 @@
         <v>978501</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>918996</v>
+        <v>915230</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1041898</v>
+        <v>1039270</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1414522860244374</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.132850282116652</v>
+        <v>0.1323057823925287</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1506169781395684</v>
+        <v>0.1502370267978508</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>743587</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>699430</v>
+        <v>696294</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>793093</v>
+        <v>795721</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2199249875269568</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2068651220569931</v>
+        <v>0.2059377532916291</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2345670798852716</v>
+        <v>0.2353443456228028</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>993</v>
@@ -7335,19 +7335,19 @@
         <v>1027486</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>976712</v>
+        <v>975235</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1085556</v>
+        <v>1085927</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2905424921024696</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.276185100583605</v>
+        <v>0.2757673322099523</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3069627105340799</v>
+        <v>0.3070676997485992</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1698</v>
@@ -7356,19 +7356,19 @@
         <v>1771073</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1691785</v>
+        <v>1703263</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1841708</v>
+        <v>1848318</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2560266785022001</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2445648558183375</v>
+        <v>0.2462241108219404</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2662377008680935</v>
+        <v>0.2671932252323665</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>755891</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>709450</v>
+        <v>709717</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>803423</v>
+        <v>811792</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2235641008223244</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2098287959946193</v>
+        <v>0.2099077499148155</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2376223852663889</v>
+        <v>0.2400976095106948</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>703</v>
@@ -7406,19 +7406,19 @@
         <v>737326</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>694840</v>
+        <v>689198</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>790039</v>
+        <v>784997</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2084937575597863</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1964799885082668</v>
+        <v>0.1948846920571136</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2233994987717506</v>
+        <v>0.2219737596343767</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1430</v>
@@ -7427,19 +7427,19 @@
         <v>1493217</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1428634</v>
+        <v>1428396</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1565756</v>
+        <v>1567110</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2158597096996785</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2065236614063667</v>
+        <v>0.2064891598418716</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2263460572346194</v>
+        <v>0.226541765373829</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>279126</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>251453</v>
+        <v>248406</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>315059</v>
+        <v>317762</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08255493052327899</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07437035153980551</v>
+        <v>0.07346908892866683</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09318271728884982</v>
+        <v>0.09398207089486778</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>194</v>
@@ -7477,19 +7477,19 @@
         <v>202929</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>176475</v>
+        <v>176454</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>231199</v>
+        <v>232047</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05738227362813887</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04990181010966361</v>
+        <v>0.04989597788833253</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06537607835331478</v>
+        <v>0.0656160112412138</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>459</v>
@@ -7498,19 +7498,19 @@
         <v>482055</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>437498</v>
+        <v>442091</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>525933</v>
+        <v>530548</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06968594731979573</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06324473928812663</v>
+        <v>0.06390877777903861</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07602893928377226</v>
+        <v>0.07669617870127066</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>1254095</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1199512</v>
+        <v>1201781</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1309910</v>
+        <v>1315516</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3709141193048229</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3547704688293918</v>
+        <v>0.3554416062109928</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3874222270003584</v>
+        <v>0.3890801279285775</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>851</v>
@@ -7548,19 +7548,19 @@
         <v>938593</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>886510</v>
+        <v>887217</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>998180</v>
+        <v>990477</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2654060620381896</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2506786943751497</v>
+        <v>0.2508785827504819</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2822554773591152</v>
+        <v>0.2800773690288736</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2054</v>
@@ -7569,19 +7569,19 @@
         <v>2192688</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2116910</v>
+        <v>2104546</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2274126</v>
+        <v>2269753</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3169753784538883</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3060209327964304</v>
+        <v>0.3042335813551421</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3287481489389797</v>
+        <v>0.3281159131160808</v>
       </c>
     </row>
     <row r="33">
